--- a/translation/xlsx/_tsum_012_2.xlsx
+++ b/translation/xlsx/_tsum_012_2.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1260" uniqueCount="978">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1260" uniqueCount="977">
   <si>
     <t>actor</t>
   </si>
@@ -2622,16 +2622,13 @@
     <t xml:space="preserve"> Welcome back!</t>
   </si>
   <si>
-    <t>어서 와~! 3</t>
+    <t xml:space="preserve">어서 와~! </t>
   </si>
   <si>
     <t xml:space="preserve">어서 와 - !  </t>
   </si>
   <si>
     <t>어서와!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">어서 와~! </t>
   </si>
   <si>
     <t xml:space="preserve">　ずいぶん時間かかったねぇ？」</t>
@@ -2956,7 +2953,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -2980,7 +2977,6 @@
       <sz val="11.0"/>
       <name val="Calibri"/>
     </font>
-    <font/>
     <font>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
@@ -3065,7 +3061,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -3080,7 +3076,7 @@
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -3090,43 +3086,43 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="1" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="1" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="1" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -3135,17 +3131,23 @@
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="8" fontId="1" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
     <xf borderId="0" fillId="8" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -3397,7 +3399,7 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="2"/>
@@ -6554,10 +6556,10 @@
       <c r="C138" s="1" t="s">
         <v>687</v>
       </c>
-      <c r="D138" s="26" t="s">
+      <c r="D138" s="4" t="s">
         <v>688</v>
       </c>
-      <c r="F138" s="27"/>
+      <c r="F138" s="26"/>
       <c r="H138" s="8"/>
       <c r="I138" s="4" t="s">
         <v>688</v>
@@ -6875,7 +6877,7 @@
         <v>758</v>
       </c>
       <c r="F152" s="7"/>
-      <c r="G152" s="12"/>
+      <c r="G152" s="27"/>
       <c r="H152" s="8"/>
       <c r="I152" s="4" t="s">
         <v>759</v>
@@ -7395,10 +7397,10 @@
       <c r="C174" s="1" t="s">
         <v>863</v>
       </c>
-      <c r="D174" s="26" t="s">
+      <c r="D174" s="4" t="s">
         <v>864</v>
       </c>
-      <c r="F174" s="27"/>
+      <c r="F174" s="26"/>
       <c r="H174" s="8"/>
       <c r="I174" s="4" t="s">
         <v>864</v>
@@ -7417,7 +7419,7 @@
       <c r="C175" s="1" t="s">
         <v>867</v>
       </c>
-      <c r="D175" s="6" t="s">
+      <c r="D175" s="29" t="s">
         <v>868</v>
       </c>
       <c r="F175" s="7"/>
@@ -7429,96 +7431,96 @@
         <v>870</v>
       </c>
       <c r="K175" s="5" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
     </row>
     <row r="176" ht="15.75" customHeight="1">
       <c r="B176" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="C176" s="1" t="s">
         <v>872</v>
       </c>
-      <c r="C176" s="1" t="s">
+      <c r="D176" s="6" t="s">
         <v>873</v>
-      </c>
-      <c r="D176" s="6" t="s">
-        <v>874</v>
       </c>
       <c r="F176" s="7"/>
       <c r="H176" s="8"/>
       <c r="I176" s="4" t="s">
+        <v>874</v>
+      </c>
+      <c r="J176" s="4" t="s">
         <v>875</v>
       </c>
-      <c r="J176" s="4" t="s">
-        <v>876</v>
-      </c>
       <c r="K176" s="5" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="177" ht="15.75" customHeight="1">
       <c r="B177" s="1" t="s">
+        <v>876</v>
+      </c>
+      <c r="C177" s="1" t="s">
         <v>877</v>
       </c>
-      <c r="C177" s="1" t="s">
+      <c r="D177" s="12" t="s">
         <v>878</v>
       </c>
-      <c r="D177" s="12" t="s">
-        <v>879</v>
-      </c>
       <c r="F177" s="7"/>
-      <c r="G177" s="7"/>
+      <c r="G177" s="30"/>
       <c r="H177" s="8"/>
       <c r="I177" s="4" t="s">
+        <v>878</v>
+      </c>
+      <c r="J177" s="4" t="s">
         <v>879</v>
       </c>
-      <c r="J177" s="4" t="s">
-        <v>880</v>
-      </c>
       <c r="K177" s="13" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="178" ht="15.75" customHeight="1">
       <c r="B178" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="C178" s="1" t="s">
         <v>881</v>
       </c>
-      <c r="C178" s="1" t="s">
+      <c r="D178" s="6" t="s">
         <v>882</v>
-      </c>
-      <c r="D178" s="6" t="s">
-        <v>883</v>
       </c>
       <c r="F178" s="7"/>
       <c r="H178" s="8"/>
       <c r="I178" s="4" t="s">
+        <v>883</v>
+      </c>
+      <c r="J178" s="4" t="s">
         <v>884</v>
       </c>
-      <c r="J178" s="4" t="s">
+      <c r="K178" s="5" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="179" ht="15.75" customHeight="1">
+      <c r="B179" s="31" t="s">
         <v>885</v>
       </c>
-      <c r="K178" s="5" t="s">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="179" ht="15.75" customHeight="1">
-      <c r="B179" s="29" t="s">
+      <c r="C179" s="31" t="s">
         <v>886</v>
       </c>
-      <c r="C179" s="29" t="s">
+      <c r="D179" s="30" t="s">
         <v>887</v>
-      </c>
-      <c r="D179" s="7" t="s">
-        <v>888</v>
       </c>
       <c r="F179" s="7"/>
       <c r="H179" s="8"/>
-      <c r="I179" s="30" t="s">
+      <c r="I179" s="32" t="s">
+        <v>888</v>
+      </c>
+      <c r="J179" s="4" t="s">
         <v>889</v>
       </c>
-      <c r="J179" s="4" t="s">
-        <v>890</v>
-      </c>
-      <c r="K179" s="31" t="s">
-        <v>888</v>
+      <c r="K179" s="33" t="s">
+        <v>887</v>
       </c>
     </row>
     <row r="180" ht="15.75" customHeight="1">
@@ -7526,24 +7528,24 @@
         <v>49</v>
       </c>
       <c r="B180" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="C180" s="1" t="s">
         <v>891</v>
       </c>
-      <c r="C180" s="1" t="s">
+      <c r="D180" s="6" t="s">
         <v>892</v>
-      </c>
-      <c r="D180" s="6" t="s">
-        <v>893</v>
       </c>
       <c r="F180" s="7"/>
       <c r="H180" s="8"/>
       <c r="I180" s="4" t="s">
+        <v>893</v>
+      </c>
+      <c r="J180" s="4" t="s">
         <v>894</v>
       </c>
-      <c r="J180" s="4" t="s">
-        <v>895</v>
-      </c>
       <c r="K180" s="5" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="181" ht="15.75" customHeight="1">
@@ -7551,68 +7553,68 @@
         <v>12</v>
       </c>
       <c r="B181" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="C181" s="1" t="s">
         <v>896</v>
       </c>
-      <c r="C181" s="1" t="s">
+      <c r="D181" s="6" t="s">
         <v>897</v>
-      </c>
-      <c r="D181" s="6" t="s">
-        <v>898</v>
       </c>
       <c r="F181" s="7"/>
       <c r="H181" s="8"/>
       <c r="I181" s="4" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="J181" s="4" t="s">
         <v>488</v>
       </c>
       <c r="K181" s="4" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="182" ht="15.75" customHeight="1">
       <c r="B182" s="1" t="s">
+        <v>899</v>
+      </c>
+      <c r="C182" s="1" t="s">
         <v>900</v>
       </c>
-      <c r="C182" s="1" t="s">
+      <c r="D182" s="6" t="s">
         <v>901</v>
-      </c>
-      <c r="D182" s="6" t="s">
-        <v>902</v>
       </c>
       <c r="F182" s="7"/>
       <c r="H182" s="8"/>
       <c r="I182" s="4" t="s">
+        <v>901</v>
+      </c>
+      <c r="J182" s="4" t="s">
         <v>902</v>
       </c>
-      <c r="J182" s="4" t="s">
-        <v>903</v>
-      </c>
       <c r="K182" s="5" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="183" ht="15.75" customHeight="1">
       <c r="B183" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="C183" s="1" t="s">
         <v>904</v>
       </c>
-      <c r="C183" s="1" t="s">
+      <c r="D183" s="6" t="s">
         <v>905</v>
-      </c>
-      <c r="D183" s="6" t="s">
-        <v>906</v>
       </c>
       <c r="F183" s="7"/>
       <c r="H183" s="8"/>
       <c r="I183" s="4" t="s">
+        <v>906</v>
+      </c>
+      <c r="J183" s="4" t="s">
         <v>907</v>
       </c>
-      <c r="J183" s="4" t="s">
-        <v>908</v>
-      </c>
       <c r="K183" s="4" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="184" ht="15.75" customHeight="1">
@@ -7620,178 +7622,178 @@
         <v>49</v>
       </c>
       <c r="B184" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="C184" s="1" t="s">
         <v>909</v>
       </c>
-      <c r="C184" s="1" t="s">
+      <c r="D184" s="6" t="s">
         <v>910</v>
-      </c>
-      <c r="D184" s="6" t="s">
-        <v>911</v>
       </c>
       <c r="F184" s="7"/>
       <c r="H184" s="8"/>
       <c r="I184" s="4" t="s">
+        <v>910</v>
+      </c>
+      <c r="J184" s="4" t="s">
         <v>911</v>
       </c>
-      <c r="J184" s="4" t="s">
-        <v>912</v>
-      </c>
       <c r="K184" s="5" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="185" ht="15.75" customHeight="1">
       <c r="B185" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="C185" s="1" t="s">
         <v>913</v>
       </c>
-      <c r="C185" s="1" t="s">
+      <c r="D185" s="6" t="s">
         <v>914</v>
-      </c>
-      <c r="D185" s="6" t="s">
-        <v>915</v>
       </c>
       <c r="F185" s="7"/>
       <c r="H185" s="8"/>
       <c r="I185" s="4" t="s">
+        <v>915</v>
+      </c>
+      <c r="J185" s="4" t="s">
         <v>916</v>
       </c>
-      <c r="J185" s="4" t="s">
-        <v>917</v>
-      </c>
       <c r="K185" s="5" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="186" ht="15.75" customHeight="1">
       <c r="B186" s="1" t="s">
+        <v>917</v>
+      </c>
+      <c r="C186" s="1" t="s">
         <v>918</v>
       </c>
-      <c r="C186" s="1" t="s">
+      <c r="D186" s="6" t="s">
         <v>919</v>
-      </c>
-      <c r="D186" s="6" t="s">
-        <v>920</v>
       </c>
       <c r="F186" s="7"/>
       <c r="H186" s="8"/>
       <c r="I186" s="4" t="s">
+        <v>920</v>
+      </c>
+      <c r="J186" s="4" t="s">
         <v>921</v>
       </c>
-      <c r="J186" s="4" t="s">
-        <v>922</v>
-      </c>
       <c r="K186" s="5" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="187" ht="15.75" customHeight="1">
       <c r="B187" s="1" t="s">
+        <v>922</v>
+      </c>
+      <c r="C187" s="1" t="s">
         <v>923</v>
       </c>
-      <c r="C187" s="1" t="s">
+      <c r="D187" s="6" t="s">
         <v>924</v>
-      </c>
-      <c r="D187" s="6" t="s">
-        <v>925</v>
       </c>
       <c r="F187" s="7"/>
       <c r="H187" s="8"/>
       <c r="I187" s="4" t="s">
+        <v>925</v>
+      </c>
+      <c r="J187" s="4" t="s">
         <v>926</v>
       </c>
-      <c r="J187" s="4" t="s">
-        <v>927</v>
-      </c>
       <c r="K187" s="5" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="188" ht="15.75" customHeight="1">
       <c r="B188" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="C188" s="1" t="s">
         <v>928</v>
       </c>
-      <c r="C188" s="1" t="s">
+      <c r="D188" s="6" t="s">
         <v>929</v>
-      </c>
-      <c r="D188" s="6" t="s">
-        <v>930</v>
       </c>
       <c r="F188" s="7"/>
       <c r="H188" s="8"/>
       <c r="I188" s="4" t="s">
+        <v>930</v>
+      </c>
+      <c r="J188" s="4" t="s">
         <v>931</v>
       </c>
-      <c r="J188" s="4" t="s">
-        <v>932</v>
-      </c>
       <c r="K188" s="5" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="189" ht="15.75" customHeight="1">
       <c r="B189" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="C189" s="1" t="s">
         <v>933</v>
       </c>
-      <c r="C189" s="1" t="s">
+      <c r="D189" s="4" t="s">
         <v>934</v>
       </c>
-      <c r="D189" s="26" t="s">
-        <v>935</v>
-      </c>
-      <c r="F189" s="27"/>
+      <c r="F189" s="26"/>
       <c r="H189" s="8"/>
       <c r="I189" s="4" t="s">
+        <v>934</v>
+      </c>
+      <c r="J189" s="4" t="s">
         <v>935</v>
       </c>
-      <c r="J189" s="4" t="s">
-        <v>936</v>
-      </c>
       <c r="K189" s="5" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="190" ht="15.75" customHeight="1">
       <c r="B190" s="1" t="s">
+        <v>936</v>
+      </c>
+      <c r="C190" s="1" t="s">
         <v>937</v>
       </c>
-      <c r="C190" s="1" t="s">
+      <c r="D190" s="6" t="s">
         <v>938</v>
-      </c>
-      <c r="D190" s="6" t="s">
-        <v>939</v>
       </c>
       <c r="F190" s="7"/>
       <c r="H190" s="8"/>
       <c r="I190" s="4" t="s">
+        <v>939</v>
+      </c>
+      <c r="J190" s="4" t="s">
         <v>940</v>
       </c>
-      <c r="J190" s="4" t="s">
-        <v>941</v>
-      </c>
       <c r="K190" s="5" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="191" ht="15.75" customHeight="1">
       <c r="B191" s="1" t="s">
+        <v>941</v>
+      </c>
+      <c r="C191" s="1" t="s">
         <v>942</v>
       </c>
-      <c r="C191" s="1" t="s">
+      <c r="D191" s="6" t="s">
         <v>943</v>
-      </c>
-      <c r="D191" s="6" t="s">
-        <v>944</v>
       </c>
       <c r="F191" s="7"/>
       <c r="H191" s="8"/>
       <c r="I191" s="4" t="s">
+        <v>944</v>
+      </c>
+      <c r="J191" s="4" t="s">
         <v>945</v>
       </c>
-      <c r="J191" s="4" t="s">
-        <v>946</v>
-      </c>
       <c r="K191" s="5" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="192" ht="15.75" customHeight="1">
@@ -7799,46 +7801,46 @@
         <v>22</v>
       </c>
       <c r="B192" s="1" t="s">
+        <v>946</v>
+      </c>
+      <c r="C192" s="1" t="s">
         <v>947</v>
       </c>
-      <c r="C192" s="1" t="s">
+      <c r="D192" s="6" t="s">
         <v>948</v>
-      </c>
-      <c r="D192" s="6" t="s">
-        <v>949</v>
       </c>
       <c r="F192" s="7"/>
       <c r="H192" s="8"/>
       <c r="I192" s="4" t="s">
+        <v>949</v>
+      </c>
+      <c r="J192" s="4" t="s">
         <v>950</v>
       </c>
-      <c r="J192" s="4" t="s">
-        <v>951</v>
-      </c>
       <c r="K192" s="5" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="193" ht="15.75" customHeight="1">
       <c r="B193" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="C193" s="1" t="s">
         <v>952</v>
       </c>
-      <c r="C193" s="1" t="s">
+      <c r="D193" s="6" t="s">
         <v>953</v>
-      </c>
-      <c r="D193" s="6" t="s">
-        <v>954</v>
       </c>
       <c r="F193" s="7"/>
       <c r="H193" s="8"/>
       <c r="I193" s="4" t="s">
+        <v>954</v>
+      </c>
+      <c r="J193" s="4" t="s">
         <v>955</v>
       </c>
-      <c r="J193" s="4" t="s">
-        <v>956</v>
-      </c>
       <c r="K193" s="5" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="194" ht="15.75" customHeight="1">
@@ -7849,43 +7851,43 @@
         <v>256</v>
       </c>
       <c r="C194" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="D194" s="6" t="s">
         <v>957</v>
-      </c>
-      <c r="D194" s="6" t="s">
-        <v>958</v>
       </c>
       <c r="F194" s="7"/>
       <c r="H194" s="8"/>
       <c r="I194" s="4" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="J194" s="4" t="s">
         <v>259</v>
       </c>
       <c r="K194" s="4" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="195" ht="15.75" customHeight="1">
       <c r="B195" s="1" t="s">
+        <v>958</v>
+      </c>
+      <c r="C195" s="1" t="s">
         <v>959</v>
       </c>
-      <c r="C195" s="1" t="s">
+      <c r="D195" s="6" t="s">
         <v>960</v>
-      </c>
-      <c r="D195" s="6" t="s">
-        <v>961</v>
       </c>
       <c r="F195" s="7"/>
       <c r="H195" s="8"/>
       <c r="I195" s="4" t="s">
+        <v>961</v>
+      </c>
+      <c r="J195" s="4" t="s">
         <v>962</v>
       </c>
-      <c r="J195" s="4" t="s">
-        <v>963</v>
-      </c>
       <c r="K195" s="5" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="196" ht="15.75" customHeight="1">
@@ -7893,24 +7895,24 @@
         <v>60</v>
       </c>
       <c r="B196" s="1" t="s">
+        <v>963</v>
+      </c>
+      <c r="C196" s="1" t="s">
         <v>964</v>
       </c>
-      <c r="C196" s="1" t="s">
+      <c r="D196" s="6" t="s">
         <v>965</v>
-      </c>
-      <c r="D196" s="6" t="s">
-        <v>966</v>
       </c>
       <c r="F196" s="7"/>
       <c r="H196" s="8"/>
       <c r="I196" s="4" t="s">
+        <v>966</v>
+      </c>
+      <c r="J196" s="4" t="s">
         <v>967</v>
       </c>
-      <c r="J196" s="4" t="s">
-        <v>968</v>
-      </c>
       <c r="K196" s="5" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="197" ht="15.75" customHeight="1">
@@ -7918,46 +7920,46 @@
         <v>33</v>
       </c>
       <c r="B197" s="1" t="s">
+        <v>968</v>
+      </c>
+      <c r="C197" s="1" t="s">
         <v>969</v>
       </c>
-      <c r="C197" s="1" t="s">
+      <c r="D197" s="6" t="s">
         <v>970</v>
-      </c>
-      <c r="D197" s="6" t="s">
-        <v>971</v>
       </c>
       <c r="F197" s="7"/>
       <c r="H197" s="8"/>
       <c r="I197" s="4" t="s">
+        <v>970</v>
+      </c>
+      <c r="J197" s="4" t="s">
         <v>971</v>
       </c>
-      <c r="J197" s="4" t="s">
-        <v>972</v>
-      </c>
       <c r="K197" s="5" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="198" ht="15.75" customHeight="1">
       <c r="B198" s="1" t="s">
+        <v>972</v>
+      </c>
+      <c r="C198" s="1" t="s">
         <v>973</v>
       </c>
-      <c r="C198" s="1" t="s">
+      <c r="D198" s="6" t="s">
         <v>974</v>
-      </c>
-      <c r="D198" s="6" t="s">
-        <v>975</v>
       </c>
       <c r="F198" s="7"/>
       <c r="H198" s="8"/>
       <c r="I198" s="4" t="s">
+        <v>975</v>
+      </c>
+      <c r="J198" s="4" t="s">
         <v>976</v>
       </c>
-      <c r="J198" s="4" t="s">
-        <v>977</v>
-      </c>
       <c r="K198" s="5" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="199" ht="15.75" customHeight="1">
@@ -9446,7 +9448,7 @@
     </row>
     <row r="411" ht="15.75" customHeight="1">
       <c r="F411" s="2"/>
-      <c r="H411" s="32"/>
+      <c r="H411" s="34"/>
       <c r="I411" s="4"/>
       <c r="J411" s="4"/>
       <c r="K411" s="4"/>
@@ -10342,7 +10344,7 @@
     </row>
     <row r="539" ht="15.75" customHeight="1">
       <c r="F539" s="2"/>
-      <c r="H539" s="32"/>
+      <c r="H539" s="34"/>
       <c r="I539" s="4"/>
       <c r="J539" s="4"/>
       <c r="K539" s="4"/>
@@ -11224,7 +11226,7 @@
     </row>
     <row r="665" ht="15.75" customHeight="1">
       <c r="F665" s="2"/>
-      <c r="H665" s="32"/>
+      <c r="H665" s="34"/>
       <c r="I665" s="4"/>
       <c r="J665" s="4"/>
       <c r="K665" s="4"/>
